--- a/Code/Results/Cases/Case_1_123/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_123/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.094274867171205</v>
+        <v>5.734961060295085</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.268951569851514</v>
+        <v>9.00900354053976</v>
       </c>
       <c r="E2">
-        <v>8.816290558952819</v>
+        <v>13.54306243573362</v>
       </c>
       <c r="F2">
-        <v>23.22687901849985</v>
+        <v>33.35405442274314</v>
       </c>
       <c r="G2">
-        <v>2.090614980863547</v>
+        <v>3.657218924134185</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>12.96631388530488</v>
+        <v>20.57168573832833</v>
       </c>
       <c r="J2">
-        <v>5.84403526409435</v>
+        <v>10.06171222349325</v>
       </c>
       <c r="K2">
-        <v>14.64590084591249</v>
+        <v>11.56035979850169</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>12.80620109247084</v>
+        <v>15.95132316739785</v>
       </c>
       <c r="N2">
-        <v>12.54585763272078</v>
+        <v>19.10453818014686</v>
       </c>
       <c r="O2">
-        <v>16.53088162814552</v>
+        <v>25.16966065198412</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.692931619829112</v>
+        <v>5.615614453262408</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.070076818758148</v>
+        <v>8.991860043657228</v>
       </c>
       <c r="E3">
-        <v>8.66170537875616</v>
+        <v>13.55089476578844</v>
       </c>
       <c r="F3">
-        <v>22.80683298655988</v>
+        <v>33.39026655727726</v>
       </c>
       <c r="G3">
-        <v>2.095629926221341</v>
+        <v>3.659162760256811</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>13.23124344918709</v>
+        <v>20.66588915144029</v>
       </c>
       <c r="J3">
-        <v>5.861924845846204</v>
+        <v>10.08380912083142</v>
       </c>
       <c r="K3">
-        <v>13.73057438308317</v>
+        <v>11.28652091386433</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>12.1951662899456</v>
+        <v>15.85201922758775</v>
       </c>
       <c r="N3">
-        <v>12.72257358555382</v>
+        <v>19.16017964157055</v>
       </c>
       <c r="O3">
-        <v>16.38828910438111</v>
+        <v>25.22610042560389</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.43307492257172</v>
+        <v>5.541944811397091</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.947187528560269</v>
+        <v>8.982667951417769</v>
       </c>
       <c r="E4">
-        <v>8.57018068453934</v>
+        <v>13.55791254144329</v>
       </c>
       <c r="F4">
-        <v>22.56429654339546</v>
+        <v>33.42012360944247</v>
       </c>
       <c r="G4">
-        <v>2.098808564606226</v>
+        <v>3.66042044886761</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>13.39928148558051</v>
+        <v>20.72677624335076</v>
       </c>
       <c r="J4">
-        <v>5.875331749147516</v>
+        <v>10.09849345644314</v>
       </c>
       <c r="K4">
-        <v>13.13698054666275</v>
+        <v>11.11661834451524</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>11.80856944213893</v>
+        <v>15.7932351071779</v>
       </c>
       <c r="N4">
-        <v>12.83392489523806</v>
+        <v>19.19603514025241</v>
       </c>
       <c r="O4">
-        <v>16.31381235220415</v>
+        <v>25.26600806172086</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.323837865244145</v>
+        <v>5.511868443381641</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.89698662793657</v>
+        <v>8.979260391852112</v>
       </c>
       <c r="E5">
-        <v>8.533765166032783</v>
+        <v>13.56132839244654</v>
       </c>
       <c r="F5">
-        <v>22.4693518764207</v>
+        <v>33.43420545127159</v>
       </c>
       <c r="G5">
-        <v>2.100129425812097</v>
+        <v>3.660949152520907</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>13.46911694332595</v>
+        <v>20.75235592689284</v>
       </c>
       <c r="J5">
-        <v>5.881390554204261</v>
+        <v>10.10475857201414</v>
       </c>
       <c r="K5">
-        <v>12.88715318818226</v>
+        <v>11.04703716172188</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>11.64835925234712</v>
+        <v>15.76984984126718</v>
       </c>
       <c r="N5">
-        <v>12.88003067454158</v>
+        <v>19.21107303480397</v>
       </c>
       <c r="O5">
-        <v>16.28667301458253</v>
+        <v>25.28358947343139</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.305498384477019</v>
+        <v>5.506872213844341</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.888645646979658</v>
+        <v>8.978715079282594</v>
       </c>
       <c r="E6">
-        <v>8.527772440569917</v>
+        <v>13.56192919195764</v>
       </c>
       <c r="F6">
-        <v>22.45382186817753</v>
+        <v>33.43665931190371</v>
       </c>
       <c r="G6">
-        <v>2.100350311609017</v>
+        <v>3.661037922397806</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>13.48079537375723</v>
+        <v>20.75664983423842</v>
       </c>
       <c r="J6">
-        <v>5.882432177096216</v>
+        <v>10.10581587839631</v>
       </c>
       <c r="K6">
-        <v>12.84519089660911</v>
+        <v>11.03546543090845</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>11.62160183157348</v>
+        <v>15.76600169478066</v>
       </c>
       <c r="N6">
-        <v>12.88773092993394</v>
+        <v>19.21359585896554</v>
       </c>
       <c r="O6">
-        <v>16.28235805350139</v>
+        <v>25.28658843008201</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.431615198829976</v>
+        <v>5.541539357830133</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.946510897117162</v>
+        <v>8.982620622575654</v>
       </c>
       <c r="E7">
-        <v>8.56968596624759</v>
+        <v>13.55795635662616</v>
       </c>
       <c r="F7">
-        <v>22.56300030849577</v>
+        <v>33.42030577204206</v>
       </c>
       <c r="G7">
-        <v>2.098826274098388</v>
+        <v>3.660427513549131</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>13.40021779879213</v>
+        <v>20.72711810911812</v>
       </c>
       <c r="J7">
-        <v>5.875411067593389</v>
+        <v>10.09857681128386</v>
       </c>
       <c r="K7">
-        <v>13.13364338846645</v>
+        <v>11.11568120917691</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>11.80641930629761</v>
+        <v>15.79291739354946</v>
       </c>
       <c r="N7">
-        <v>12.8345437239406</v>
+        <v>19.19623621817477</v>
       </c>
       <c r="O7">
-        <v>16.31343344979094</v>
+        <v>25.26623983451982</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.958696606431293</v>
+        <v>5.693916615825552</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.200583849161088</v>
+        <v>9.002817335722625</v>
       </c>
       <c r="E8">
-        <v>8.762303556638846</v>
+        <v>13.54530504837895</v>
       </c>
       <c r="F8">
-        <v>23.07887511753972</v>
+        <v>33.36495733717818</v>
       </c>
       <c r="G8">
-        <v>2.092323824289453</v>
+        <v>3.657875871704977</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>13.05655181199973</v>
+        <v>20.60353600478241</v>
       </c>
       <c r="J8">
-        <v>5.849692354791152</v>
+        <v>10.06909964108532</v>
       </c>
       <c r="K8">
-        <v>14.33685147288511</v>
+        <v>11.46636451177091</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>12.59799809557133</v>
+        <v>15.9166407018757</v>
       </c>
       <c r="N8">
-        <v>12.60620654486808</v>
+        <v>19.12337300707029</v>
       </c>
       <c r="O8">
-        <v>16.47895752726004</v>
+        <v>25.18802943999991</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.884697675696994</v>
+        <v>5.987823558966094</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.689678040555895</v>
+        <v>9.052875199834029</v>
       </c>
       <c r="E9">
-        <v>9.16560151134291</v>
+        <v>13.53798668516391</v>
       </c>
       <c r="F9">
-        <v>24.21086384702157</v>
+        <v>33.316959402831</v>
       </c>
       <c r="G9">
-        <v>2.080336099298175</v>
+        <v>3.653378933700667</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>12.42488645389122</v>
+        <v>20.38527599903653</v>
       </c>
       <c r="J9">
-        <v>5.819119189240314</v>
+        <v>10.02014198703981</v>
       </c>
       <c r="K9">
-        <v>16.44605166687808</v>
+        <v>12.13592581345781</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>14.05234059273849</v>
+        <v>16.17574480710136</v>
       </c>
       <c r="N9">
-        <v>12.1804011773522</v>
+        <v>18.99385527861457</v>
       </c>
       <c r="O9">
-        <v>16.91039482997548</v>
+        <v>25.07643629943126</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.498547574603005</v>
+        <v>6.198466879009145</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.039897731292621</v>
+        <v>9.095833188253131</v>
       </c>
       <c r="E10">
-        <v>9.475678191843098</v>
+        <v>13.54321888352424</v>
       </c>
       <c r="F10">
-        <v>25.11324181601597</v>
+        <v>33.31863912899301</v>
       </c>
       <c r="G10">
-        <v>2.071956731526036</v>
+        <v>3.650380790157785</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>11.98613918499236</v>
+        <v>20.23948544819868</v>
       </c>
       <c r="J10">
-        <v>5.809673753927417</v>
+        <v>9.989547170862418</v>
       </c>
       <c r="K10">
-        <v>17.84422717063421</v>
+        <v>12.61163091071535</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.25939764496899</v>
+        <v>16.37492594970504</v>
       </c>
       <c r="N10">
-        <v>11.88004459551347</v>
+        <v>18.90677123842251</v>
       </c>
       <c r="O10">
-        <v>17.29624094241361</v>
+        <v>25.02003355614719</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.763293828396757</v>
+        <v>6.292697704801102</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.196615646730677</v>
+        <v>9.116672576575652</v>
       </c>
       <c r="E11">
-        <v>9.619350140510354</v>
+        <v>13.54788777060069</v>
       </c>
       <c r="F11">
-        <v>25.53845543615017</v>
+        <v>33.3274166421518</v>
       </c>
       <c r="G11">
-        <v>2.06822888809598</v>
+        <v>3.64908256546796</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>11.79197889903332</v>
+        <v>20.17629941648531</v>
       </c>
       <c r="J11">
-        <v>5.80840862238167</v>
+        <v>9.97679174989867</v>
       </c>
       <c r="K11">
-        <v>18.4478114332996</v>
+        <v>12.82353533419285</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>15.79171232962313</v>
+        <v>16.46717927407105</v>
       </c>
       <c r="N11">
-        <v>11.7459099291653</v>
+        <v>18.86889119868406</v>
       </c>
       <c r="O11">
-        <v>17.48738730204714</v>
+        <v>24.99994957811505</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.861460415793411</v>
+        <v>6.328117201545615</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>7.255542996650501</v>
+        <v>9.124746300088441</v>
       </c>
       <c r="E12">
-        <v>9.674100687724689</v>
+        <v>13.54998326137192</v>
       </c>
       <c r="F12">
-        <v>25.70153243566737</v>
+        <v>33.33189051336984</v>
       </c>
       <c r="G12">
-        <v>2.066828557662025</v>
+        <v>3.648600349538444</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>11.71923402557757</v>
+        <v>20.15282148146131</v>
       </c>
       <c r="J12">
-        <v>5.808383119112946</v>
+        <v>9.97212842763995</v>
       </c>
       <c r="K12">
-        <v>18.67174660901138</v>
+        <v>12.90305729714956</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>15.98921804172726</v>
+        <v>16.50232600211589</v>
       </c>
       <c r="N12">
-        <v>11.6954589070058</v>
+        <v>18.85479530598404</v>
       </c>
       <c r="O12">
-        <v>17.5620613003638</v>
+        <v>24.99314692057136</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.840411310296464</v>
+        <v>6.320501235091128</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>7.242871187848224</v>
+        <v>9.122999441963078</v>
       </c>
       <c r="E13">
-        <v>9.662294303806657</v>
+        <v>13.54951742298232</v>
       </c>
       <c r="F13">
-        <v>25.66632025719192</v>
+        <v>33.33087588376534</v>
       </c>
       <c r="G13">
-        <v>2.067129652780397</v>
+        <v>3.64870378631657</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>11.73486626337529</v>
+        <v>20.15785791886138</v>
       </c>
       <c r="J13">
-        <v>5.808368151669489</v>
+        <v>9.973125339716367</v>
       </c>
       <c r="K13">
-        <v>18.62372338359468</v>
+        <v>12.88596404818115</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>15.94686191792449</v>
+        <v>16.49474746610189</v>
       </c>
       <c r="N13">
-        <v>11.70630945694377</v>
+        <v>18.85782007468935</v>
       </c>
       <c r="O13">
-        <v>17.5458763647225</v>
+        <v>24.99457627824525</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.771411882399123</v>
+        <v>6.295617163428452</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>7.201472252883912</v>
+        <v>9.117333178423531</v>
       </c>
       <c r="E14">
-        <v>9.623847755982764</v>
+        <v>13.54805361463016</v>
       </c>
       <c r="F14">
-        <v>25.55183095994898</v>
+        <v>33.32776167845525</v>
       </c>
       <c r="G14">
-        <v>2.068113459620151</v>
+        <v>3.64904270527491</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>11.78597851188829</v>
+        <v>20.17435887785678</v>
       </c>
       <c r="J14">
-        <v>5.808397330769335</v>
+        <v>9.976404752568993</v>
       </c>
       <c r="K14">
-        <v>18.46632725342797</v>
+        <v>12.8300925260223</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>15.80804254498031</v>
+        <v>16.47006669899566</v>
       </c>
       <c r="N14">
-        <v>11.7417525181562</v>
+        <v>18.86772654749273</v>
       </c>
       <c r="O14">
-        <v>17.49348462280541</v>
+        <v>24.99937382618942</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.728875928854528</v>
+        <v>6.280339620705942</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>7.176058512223722</v>
+        <v>9.113886038299194</v>
       </c>
       <c r="E15">
-        <v>9.600342186622308</v>
+        <v>13.54719958623418</v>
       </c>
       <c r="F15">
-        <v>25.48196927008231</v>
+        <v>33.32600382079349</v>
       </c>
       <c r="G15">
-        <v>2.068717521155563</v>
+        <v>3.649251524880361</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>11.81738774943806</v>
+        <v>20.18452465122996</v>
       </c>
       <c r="J15">
-        <v>5.808474806135616</v>
+        <v>9.978435212415144</v>
       </c>
       <c r="K15">
-        <v>18.36931594732051</v>
+        <v>12.7957734976982</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>15.72248300897216</v>
+        <v>16.45497595584133</v>
       </c>
       <c r="N15">
-        <v>11.763506568651</v>
+        <v>18.87382687430296</v>
       </c>
       <c r="O15">
-        <v>17.46169276796627</v>
+        <v>25.00241702925421</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.480953779904052</v>
+        <v>6.192273616409303</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>7.029599597985631</v>
+        <v>9.094497033785482</v>
       </c>
       <c r="E16">
-        <v>9.466338836528115</v>
+        <v>13.54295968070217</v>
       </c>
       <c r="F16">
-        <v>25.08574418846136</v>
+        <v>33.31822657136659</v>
       </c>
       <c r="G16">
-        <v>2.072201981389198</v>
+        <v>3.650466949197971</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>11.99893709308723</v>
+        <v>20.24367775242617</v>
       </c>
       <c r="J16">
-        <v>5.80981893087461</v>
+        <v>9.990404134128768</v>
       </c>
       <c r="K16">
-        <v>17.8041315692156</v>
+        <v>12.59768542969699</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.22403748499367</v>
+        <v>16.36892802042712</v>
       </c>
       <c r="N16">
-        <v>11.88885950126318</v>
+        <v>18.90928161141241</v>
       </c>
       <c r="O16">
-        <v>17.2840673607414</v>
+        <v>25.02145836116438</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.325145671446682</v>
+        <v>6.13781479821048</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.939052483385912</v>
+        <v>9.082931862422996</v>
       </c>
       <c r="E17">
-        <v>9.384779526072101</v>
+        <v>13.5409437339473</v>
       </c>
       <c r="F17">
-        <v>24.84639995060849</v>
+        <v>33.31550654608345</v>
       </c>
       <c r="G17">
-        <v>2.074360571964766</v>
+        <v>3.651229353127643</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>12.11170047060397</v>
+        <v>20.28076806383074</v>
       </c>
       <c r="J17">
-        <v>5.811432338501091</v>
+        <v>9.998044191743739</v>
       </c>
       <c r="K17">
-        <v>17.4491222391032</v>
+        <v>12.47495793374394</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>14.91095765800333</v>
+        <v>16.31654461049531</v>
       </c>
       <c r="N17">
-        <v>11.96638796993758</v>
+        <v>18.93147556764297</v>
       </c>
       <c r="O17">
-        <v>17.17913452121305</v>
+        <v>25.03456815549302</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.234164327771191</v>
+        <v>6.106343626346635</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.886729842310052</v>
+        <v>9.07640228671994</v>
       </c>
       <c r="E18">
-        <v>9.338116813046669</v>
+        <v>13.53999975080216</v>
       </c>
       <c r="F18">
-        <v>24.71012417181675</v>
+        <v>33.31469651126212</v>
       </c>
       <c r="G18">
-        <v>2.075610087870001</v>
+        <v>3.651674049338206</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>12.17706983825945</v>
+        <v>20.30239658466735</v>
       </c>
       <c r="J18">
-        <v>5.812644590422054</v>
+        <v>10.00254796903794</v>
       </c>
       <c r="K18">
-        <v>17.24187302334905</v>
+        <v>12.40394923550659</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>14.72818533211071</v>
+        <v>16.28657134339701</v>
       </c>
       <c r="N18">
-        <v>12.01121653730854</v>
+        <v>18.94440430413465</v>
       </c>
       <c r="O18">
-        <v>17.12024812627502</v>
+        <v>25.0426331534874</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.203125360463053</v>
+        <v>6.095663723041802</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.868974134203759</v>
+        <v>9.074212635114039</v>
       </c>
       <c r="E19">
-        <v>9.322361201947889</v>
+        <v>13.53971719951291</v>
       </c>
       <c r="F19">
-        <v>24.66422387225798</v>
+        <v>33.31455188095188</v>
       </c>
       <c r="G19">
-        <v>2.076034540350033</v>
+        <v>3.651825678949852</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>12.19929059438923</v>
+        <v>20.30977037061373</v>
       </c>
       <c r="J19">
-        <v>5.813103333088141</v>
+        <v>10.004091671239</v>
       </c>
       <c r="K19">
-        <v>17.1711758648565</v>
+        <v>12.37983731590371</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>14.66583719875959</v>
+        <v>16.27645048237358</v>
       </c>
       <c r="N19">
-        <v>12.02643578843431</v>
+        <v>18.94880984081851</v>
       </c>
       <c r="O19">
-        <v>17.10056093642589</v>
+        <v>25.04545388112021</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.341872974011579</v>
+        <v>6.143627598564919</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>6.948716801891903</v>
+        <v>9.08415035664051</v>
       </c>
       <c r="E20">
-        <v>9.393436213977505</v>
+        <v>13.54113603897449</v>
       </c>
       <c r="F20">
-        <v>24.87173526210029</v>
+        <v>33.31571802834398</v>
       </c>
       <c r="G20">
-        <v>2.074129968640251</v>
+        <v>3.651147554486953</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>12.09964376055458</v>
+        <v>20.2767892006844</v>
       </c>
       <c r="J20">
-        <v>5.811231042638932</v>
+        <v>9.997219572073329</v>
       </c>
       <c r="K20">
-        <v>17.4872297466087</v>
+        <v>12.48806642187673</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>14.94456435839053</v>
+        <v>16.32210491284341</v>
       </c>
       <c r="N20">
-        <v>11.95811059959845</v>
+        <v>18.92909608343554</v>
       </c>
       <c r="O20">
-        <v>17.19015251129611</v>
+        <v>25.03311829271601</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.791735331847526</v>
+        <v>6.302933640085374</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7.213643801990181</v>
+        <v>9.11899258503869</v>
       </c>
       <c r="E21">
-        <v>9.635131311466429</v>
+        <v>13.54847469673626</v>
       </c>
       <c r="F21">
-        <v>25.58540384210934</v>
+        <v>33.32864520757366</v>
       </c>
       <c r="G21">
-        <v>2.067824190636189</v>
+        <v>3.648942901988319</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>11.77094444963406</v>
+        <v>20.16949996601165</v>
       </c>
       <c r="J21">
-        <v>5.808376306777921</v>
+        <v>9.975436982563261</v>
       </c>
       <c r="K21">
-        <v>18.51268361672856</v>
+        <v>12.846523500983</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>15.84892724625402</v>
+        <v>16.47731046786124</v>
       </c>
       <c r="N21">
-        <v>11.73133286090553</v>
+        <v>18.86481004135707</v>
       </c>
       <c r="O21">
-        <v>17.5088108379051</v>
+        <v>24.99794287682804</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.073582494984553</v>
+        <v>6.405497969381964</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>7.384334206600679</v>
+        <v>9.142824443259505</v>
       </c>
       <c r="E22">
-        <v>9.795091625785592</v>
+        <v>13.55517887396077</v>
       </c>
       <c r="F22">
-        <v>26.06379804051045</v>
+        <v>33.34379536125952</v>
       </c>
       <c r="G22">
-        <v>2.063768614559831</v>
+        <v>3.647556765969779</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>11.56066475512609</v>
+        <v>20.10199808881331</v>
       </c>
       <c r="J22">
-        <v>5.809162971145574</v>
+        <v>9.962173376285861</v>
       </c>
       <c r="K22">
-        <v>19.15591649381979</v>
+        <v>13.07655892544654</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>16.41627936623265</v>
+        <v>16.5799729109261</v>
       </c>
       <c r="N22">
-        <v>11.58511092318588</v>
+        <v>18.82424312416549</v>
       </c>
       <c r="O22">
-        <v>17.73044399615797</v>
+        <v>24.9796328444426</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.924268298468839</v>
+        <v>6.350910296544218</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>7.293471293471232</v>
+        <v>9.130009371051939</v>
       </c>
       <c r="E23">
-        <v>9.709544667490528</v>
+        <v>13.5514267398362</v>
       </c>
       <c r="F23">
-        <v>25.80739305112362</v>
+        <v>33.33509723850955</v>
       </c>
       <c r="G23">
-        <v>2.065927409460803</v>
+        <v>3.648291580051163</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>11.67247890792468</v>
+        <v>20.13778608094348</v>
       </c>
       <c r="J23">
-        <v>5.808494435147858</v>
+        <v>9.969163508498408</v>
       </c>
       <c r="K23">
-        <v>18.81506403058922</v>
+        <v>12.95419567193239</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.11562558047112</v>
+        <v>16.52507583347837</v>
       </c>
       <c r="N23">
-        <v>11.66297579507861</v>
+        <v>18.84576231902401</v>
       </c>
       <c r="O23">
-        <v>17.61091713484845</v>
+        <v>24.9889767995223</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.33431493714615</v>
+        <v>6.141000133683564</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6.944348388255254</v>
+        <v>9.083599103189426</v>
       </c>
       <c r="E24">
-        <v>9.389521816487564</v>
+        <v>13.54104842802052</v>
       </c>
       <c r="F24">
-        <v>24.86027703179407</v>
+        <v>33.31562006917329</v>
       </c>
       <c r="G24">
-        <v>2.074234197829573</v>
+        <v>3.651184515775271</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>12.10509291644722</v>
+        <v>20.27858709514426</v>
       </c>
       <c r="J24">
-        <v>5.811321163103278</v>
+        <v>9.997592035585468</v>
       </c>
       <c r="K24">
-        <v>17.47001115561834</v>
+        <v>12.48214147344981</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>14.92937942716566</v>
+        <v>16.31959065395913</v>
       </c>
       <c r="N24">
-        <v>11.96185199880257</v>
+        <v>18.93017132131316</v>
       </c>
       <c r="O24">
-        <v>17.18516679333203</v>
+        <v>25.03377213105541</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.645824079841768</v>
+        <v>5.909083918445133</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.558732949096206</v>
+        <v>9.038233101999319</v>
       </c>
       <c r="E25">
-        <v>9.053947577266459</v>
+        <v>13.53809883303141</v>
       </c>
       <c r="F25">
-        <v>23.89199686789087</v>
+        <v>33.323455837749</v>
       </c>
       <c r="G25">
-        <v>2.083501098787156</v>
+        <v>3.654541549511444</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>12.59129258961547</v>
+        <v>20.44175494921521</v>
       </c>
       <c r="J25">
-        <v>5.825171735722478</v>
+        <v>10.03244115673958</v>
       </c>
       <c r="K25">
-        <v>15.90216749051246</v>
+        <v>11.95728735771992</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>13.67029687033174</v>
+        <v>16.10401028940759</v>
       </c>
       <c r="N25">
-        <v>12.29333342774423</v>
+        <v>19.02747016693486</v>
       </c>
       <c r="O25">
-        <v>16.7818283214291</v>
+        <v>25.10213960820894</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_123/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_123/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.734961060295085</v>
+        <v>7.09427486717119</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.00900354053976</v>
+        <v>6.268951569851616</v>
       </c>
       <c r="E2">
-        <v>13.54306243573362</v>
+        <v>8.816290558952909</v>
       </c>
       <c r="F2">
-        <v>33.35405442274314</v>
+        <v>23.22687901849991</v>
       </c>
       <c r="G2">
-        <v>3.657218924134185</v>
+        <v>2.090614980863947</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>20.57168573832833</v>
+        <v>12.96631388530491</v>
       </c>
       <c r="J2">
-        <v>10.06171222349325</v>
+        <v>5.844035264094384</v>
       </c>
       <c r="K2">
-        <v>11.56035979850169</v>
+        <v>14.64590084591256</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.95132316739785</v>
+        <v>12.80620109247081</v>
       </c>
       <c r="N2">
-        <v>19.10453818014686</v>
+        <v>12.54585763272081</v>
       </c>
       <c r="O2">
-        <v>25.16966065198412</v>
+        <v>16.53088162814547</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.615614453262408</v>
+        <v>6.692931619829105</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.991860043657228</v>
+        <v>6.07007681875835</v>
       </c>
       <c r="E3">
-        <v>13.55089476578844</v>
+        <v>8.66170537875621</v>
       </c>
       <c r="F3">
-        <v>33.39026655727726</v>
+        <v>22.80683298655981</v>
       </c>
       <c r="G3">
-        <v>3.659162760256811</v>
+        <v>2.095629926221741</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>20.66588915144029</v>
+        <v>13.23124344918706</v>
       </c>
       <c r="J3">
-        <v>10.08380912083142</v>
+        <v>5.861924845846176</v>
       </c>
       <c r="K3">
-        <v>11.28652091386433</v>
+        <v>13.7305743830832</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.85201922758775</v>
+        <v>12.19516628994559</v>
       </c>
       <c r="N3">
-        <v>19.16017964157055</v>
+        <v>12.72257358555379</v>
       </c>
       <c r="O3">
-        <v>25.22610042560389</v>
+        <v>16.38828910438101</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.541944811397091</v>
+        <v>6.433074922571707</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.982667951417769</v>
+        <v>5.947187528560194</v>
       </c>
       <c r="E4">
-        <v>13.55791254144329</v>
+        <v>8.570180684539245</v>
       </c>
       <c r="F4">
-        <v>33.42012360944247</v>
+        <v>22.56429654339522</v>
       </c>
       <c r="G4">
-        <v>3.66042044886761</v>
+        <v>2.098808564606227</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>20.72677624335076</v>
+        <v>13.39928148558051</v>
       </c>
       <c r="J4">
-        <v>10.09849345644314</v>
+        <v>5.875331749147454</v>
       </c>
       <c r="K4">
-        <v>11.11661834451524</v>
+        <v>13.13698054666282</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.7932351071779</v>
+        <v>11.80856944213883</v>
       </c>
       <c r="N4">
-        <v>19.19603514025241</v>
+        <v>12.83392489523806</v>
       </c>
       <c r="O4">
-        <v>25.26600806172086</v>
+        <v>16.31381235220399</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.511868443381641</v>
+        <v>6.323837865244104</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.979260391852112</v>
+        <v>5.896986627936597</v>
       </c>
       <c r="E5">
-        <v>13.56132839244654</v>
+        <v>8.533765166032834</v>
       </c>
       <c r="F5">
-        <v>33.43420545127159</v>
+        <v>22.46935187642057</v>
       </c>
       <c r="G5">
-        <v>3.660949152520907</v>
+        <v>2.100129425811828</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>20.75235592689284</v>
+        <v>13.46911694332595</v>
       </c>
       <c r="J5">
-        <v>10.10475857201414</v>
+        <v>5.88139055420432</v>
       </c>
       <c r="K5">
-        <v>11.04703716172188</v>
+        <v>12.88715318818231</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.76984984126718</v>
+        <v>11.64835925234711</v>
       </c>
       <c r="N5">
-        <v>19.21107303480397</v>
+        <v>12.88003067454154</v>
       </c>
       <c r="O5">
-        <v>25.28358947343139</v>
+        <v>16.28667301458241</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.506872213844341</v>
+        <v>6.305498384477011</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8.978715079282594</v>
+        <v>5.8886456469796</v>
       </c>
       <c r="E6">
-        <v>13.56192919195764</v>
+        <v>8.527772440569818</v>
       </c>
       <c r="F6">
-        <v>33.43665931190371</v>
+        <v>22.4538218681773</v>
       </c>
       <c r="G6">
-        <v>3.661037922397806</v>
+        <v>2.100350311609153</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>20.75664983423842</v>
+        <v>13.48079537375716</v>
       </c>
       <c r="J6">
-        <v>10.10581587839631</v>
+        <v>5.882432177096184</v>
       </c>
       <c r="K6">
-        <v>11.03546543090845</v>
+        <v>12.84519089660914</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.76600169478066</v>
+        <v>11.62160183157342</v>
       </c>
       <c r="N6">
-        <v>19.21359585896554</v>
+        <v>12.88773092993388</v>
       </c>
       <c r="O6">
-        <v>25.28658843008201</v>
+        <v>16.28235805350122</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.541539357830133</v>
+        <v>6.431615198829943</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.982620622575654</v>
+        <v>5.946510897117304</v>
       </c>
       <c r="E7">
-        <v>13.55795635662616</v>
+        <v>8.569685966247571</v>
       </c>
       <c r="F7">
-        <v>33.42030577204206</v>
+        <v>22.5630003084956</v>
       </c>
       <c r="G7">
-        <v>3.660427513549131</v>
+        <v>2.098826274098521</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>20.72711810911812</v>
+        <v>13.40021779879213</v>
       </c>
       <c r="J7">
-        <v>10.09857681128386</v>
+        <v>5.875411067593332</v>
       </c>
       <c r="K7">
-        <v>11.11568120917691</v>
+        <v>13.13364338846653</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.79291739354946</v>
+        <v>11.80641930629756</v>
       </c>
       <c r="N7">
-        <v>19.19623621817477</v>
+        <v>12.83454372394057</v>
       </c>
       <c r="O7">
-        <v>25.26623983451982</v>
+        <v>16.31343344979078</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.693916615825552</v>
+        <v>6.958696606431268</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>9.002817335722625</v>
+        <v>6.200583849161114</v>
       </c>
       <c r="E8">
-        <v>13.54530504837895</v>
+        <v>8.762303556638901</v>
       </c>
       <c r="F8">
-        <v>33.36495733717818</v>
+        <v>23.07887511753963</v>
       </c>
       <c r="G8">
-        <v>3.657875871704977</v>
+        <v>2.092323824289451</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>20.60353600478241</v>
+        <v>13.05655181199973</v>
       </c>
       <c r="J8">
-        <v>10.06909964108532</v>
+        <v>5.849692354791185</v>
       </c>
       <c r="K8">
-        <v>11.46636451177091</v>
+        <v>14.33685147288514</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.9166407018757</v>
+        <v>12.59799809557132</v>
       </c>
       <c r="N8">
-        <v>19.12337300707029</v>
+        <v>12.60620654486805</v>
       </c>
       <c r="O8">
-        <v>25.18802943999991</v>
+        <v>16.47895752725996</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.987823558966094</v>
+        <v>7.884697675696965</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>9.052875199834029</v>
+        <v>6.689678040555916</v>
       </c>
       <c r="E9">
-        <v>13.53798668516391</v>
+        <v>9.165601511342953</v>
       </c>
       <c r="F9">
-        <v>33.316959402831</v>
+        <v>24.2108638470215</v>
       </c>
       <c r="G9">
-        <v>3.653378933700667</v>
+        <v>2.080336099298042</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>20.38527599903653</v>
+        <v>12.42488645389122</v>
       </c>
       <c r="J9">
-        <v>10.02014198703981</v>
+        <v>5.819119189240372</v>
       </c>
       <c r="K9">
-        <v>12.13592581345781</v>
+        <v>16.44605166687809</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.17574480710136</v>
+        <v>14.05234059273849</v>
       </c>
       <c r="N9">
-        <v>18.99385527861457</v>
+        <v>12.18040117735217</v>
       </c>
       <c r="O9">
-        <v>25.07643629943126</v>
+        <v>16.91039482997541</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.198466879009145</v>
+        <v>8.498547574602981</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.095833188253131</v>
+        <v>7.039897731292542</v>
       </c>
       <c r="E10">
-        <v>13.54321888352424</v>
+        <v>9.475678191843109</v>
       </c>
       <c r="F10">
-        <v>33.31863912899301</v>
+        <v>25.11324181601581</v>
       </c>
       <c r="G10">
-        <v>3.650380790157785</v>
+        <v>2.071956731525635</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>20.23948544819868</v>
+        <v>11.98613918499232</v>
       </c>
       <c r="J10">
-        <v>9.989547170862418</v>
+        <v>5.809673753927467</v>
       </c>
       <c r="K10">
-        <v>12.61163091071535</v>
+        <v>17.84422717063423</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.37492594970504</v>
+        <v>15.25939764496902</v>
       </c>
       <c r="N10">
-        <v>18.90677123842251</v>
+        <v>11.88004459551343</v>
       </c>
       <c r="O10">
-        <v>25.02003355614719</v>
+        <v>17.29624094241356</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.292697704801102</v>
+        <v>8.763293828396728</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.116672576575652</v>
+        <v>7.196615646730743</v>
       </c>
       <c r="E11">
-        <v>13.54788777060069</v>
+        <v>9.619350140510402</v>
       </c>
       <c r="F11">
-        <v>33.3274166421518</v>
+        <v>25.53845543615012</v>
       </c>
       <c r="G11">
-        <v>3.64908256546796</v>
+        <v>2.068228888095981</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>20.17629941648531</v>
+        <v>11.79197889903322</v>
       </c>
       <c r="J11">
-        <v>9.97679174989867</v>
+        <v>5.80840862238168</v>
       </c>
       <c r="K11">
-        <v>12.82353533419285</v>
+        <v>18.44781143329964</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>16.46717927407105</v>
+        <v>15.79171232962315</v>
       </c>
       <c r="N11">
-        <v>18.86889119868406</v>
+        <v>11.74590992916527</v>
       </c>
       <c r="O11">
-        <v>24.99994957811505</v>
+        <v>17.48738730204706</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.328117201545615</v>
+        <v>8.861460415793482</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>9.124746300088441</v>
+        <v>7.255542996650576</v>
       </c>
       <c r="E12">
-        <v>13.54998326137192</v>
+        <v>9.674100687724723</v>
       </c>
       <c r="F12">
-        <v>33.33189051336984</v>
+        <v>25.70153243566737</v>
       </c>
       <c r="G12">
-        <v>3.648600349538444</v>
+        <v>2.066828557662023</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>20.15282148146131</v>
+        <v>11.71923402557757</v>
       </c>
       <c r="J12">
-        <v>9.97212842763995</v>
+        <v>5.808383119112948</v>
       </c>
       <c r="K12">
-        <v>12.90305729714956</v>
+        <v>18.67174660901144</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.50232600211589</v>
+        <v>15.98921804172727</v>
       </c>
       <c r="N12">
-        <v>18.85479530598404</v>
+        <v>11.69545890700587</v>
       </c>
       <c r="O12">
-        <v>24.99314692057136</v>
+        <v>17.56206130036379</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.320501235091128</v>
+        <v>8.840411310296455</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>9.122999441963078</v>
+        <v>7.242871187848237</v>
       </c>
       <c r="E13">
-        <v>13.54951742298232</v>
+        <v>9.662294303806659</v>
       </c>
       <c r="F13">
-        <v>33.33087588376534</v>
+        <v>25.66632025719183</v>
       </c>
       <c r="G13">
-        <v>3.64870378631657</v>
+        <v>2.067129652780397</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>20.15785791886138</v>
+        <v>11.73486626337516</v>
       </c>
       <c r="J13">
-        <v>9.973125339716367</v>
+        <v>5.808368151669483</v>
       </c>
       <c r="K13">
-        <v>12.88596404818115</v>
+        <v>18.62372338359465</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.49474746610189</v>
+        <v>15.94686191792449</v>
       </c>
       <c r="N13">
-        <v>18.85782007468935</v>
+        <v>11.70630945694371</v>
       </c>
       <c r="O13">
-        <v>24.99457627824525</v>
+        <v>17.54587636472245</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.295617163428452</v>
+        <v>8.771411882399146</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.117333178423531</v>
+        <v>7.201472252884066</v>
       </c>
       <c r="E14">
-        <v>13.54805361463016</v>
+        <v>9.623847755982792</v>
       </c>
       <c r="F14">
-        <v>33.32776167845525</v>
+        <v>25.55183095994882</v>
       </c>
       <c r="G14">
-        <v>3.64904270527491</v>
+        <v>2.068113459620151</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>20.17435887785678</v>
+        <v>11.78597851188809</v>
       </c>
       <c r="J14">
-        <v>9.976404752568993</v>
+        <v>5.808397330769259</v>
       </c>
       <c r="K14">
-        <v>12.8300925260223</v>
+        <v>18.46632725342807</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>16.47006669899566</v>
+        <v>15.80804254498038</v>
       </c>
       <c r="N14">
-        <v>18.86772654749273</v>
+        <v>11.74175251815606</v>
       </c>
       <c r="O14">
-        <v>24.99937382618942</v>
+        <v>17.4934846228052</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.280339620705942</v>
+        <v>8.728875928854457</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.113886038299194</v>
+        <v>7.176058512223698</v>
       </c>
       <c r="E15">
-        <v>13.54719958623418</v>
+        <v>9.600342186622274</v>
       </c>
       <c r="F15">
-        <v>33.32600382079349</v>
+        <v>25.48196927008217</v>
       </c>
       <c r="G15">
-        <v>3.649251524880361</v>
+        <v>2.068717521155563</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>20.18452465122996</v>
+        <v>11.81738774943809</v>
       </c>
       <c r="J15">
-        <v>9.978435212415144</v>
+        <v>5.808474806135583</v>
       </c>
       <c r="K15">
-        <v>12.7957734976982</v>
+        <v>18.36931594732059</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>16.45497595584133</v>
+        <v>15.72248300897223</v>
       </c>
       <c r="N15">
-        <v>18.87382687430296</v>
+        <v>11.76350656865094</v>
       </c>
       <c r="O15">
-        <v>25.00241702925421</v>
+        <v>17.46169276796616</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.192273616409303</v>
+        <v>8.480953779904024</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.094497033785482</v>
+        <v>7.029599597985695</v>
       </c>
       <c r="E16">
-        <v>13.54295968070217</v>
+        <v>9.466338836528164</v>
       </c>
       <c r="F16">
-        <v>33.31822657136659</v>
+        <v>25.08574418846124</v>
       </c>
       <c r="G16">
-        <v>3.650466949197971</v>
+        <v>2.072201981389067</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>20.24367775242617</v>
+        <v>11.99893709308713</v>
       </c>
       <c r="J16">
-        <v>9.990404134128768</v>
+        <v>5.809818930874609</v>
       </c>
       <c r="K16">
-        <v>12.59768542969699</v>
+        <v>17.80413156921568</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.36892802042712</v>
+        <v>15.2240374849937</v>
       </c>
       <c r="N16">
-        <v>18.90928161141241</v>
+        <v>11.88885950126311</v>
       </c>
       <c r="O16">
-        <v>25.02145836116438</v>
+        <v>17.28406736074123</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.13781479821048</v>
+        <v>8.325145671446728</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.082931862422996</v>
+        <v>6.939052483385981</v>
       </c>
       <c r="E17">
-        <v>13.5409437339473</v>
+        <v>9.384779526072183</v>
       </c>
       <c r="F17">
-        <v>33.31550654608345</v>
+        <v>24.84639995060848</v>
       </c>
       <c r="G17">
-        <v>3.651229353127643</v>
+        <v>2.07436057196463</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>20.28076806383074</v>
+        <v>12.1117004706039</v>
       </c>
       <c r="J17">
-        <v>9.998044191743739</v>
+        <v>5.811432338501125</v>
       </c>
       <c r="K17">
-        <v>12.47495793374394</v>
+        <v>17.44912223910322</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>16.31654461049531</v>
+        <v>14.91095765800332</v>
       </c>
       <c r="N17">
-        <v>18.93147556764297</v>
+        <v>11.96638796993758</v>
       </c>
       <c r="O17">
-        <v>25.03456815549302</v>
+        <v>17.179134521213</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.106343626346635</v>
+        <v>8.234164327771186</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.07640228671994</v>
+        <v>6.886729842310044</v>
       </c>
       <c r="E18">
-        <v>13.53999975080216</v>
+        <v>9.338116813046678</v>
       </c>
       <c r="F18">
-        <v>33.31469651126212</v>
+        <v>24.71012417181676</v>
       </c>
       <c r="G18">
-        <v>3.651674049338206</v>
+        <v>2.075610087870002</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>20.30239658466735</v>
+        <v>12.17706983825945</v>
       </c>
       <c r="J18">
-        <v>10.00254796903794</v>
+        <v>5.812644590422054</v>
       </c>
       <c r="K18">
-        <v>12.40394923550659</v>
+        <v>17.2418730233491</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.28657134339701</v>
+        <v>14.72818533211073</v>
       </c>
       <c r="N18">
-        <v>18.94440430413465</v>
+        <v>12.01121653730854</v>
       </c>
       <c r="O18">
-        <v>25.0426331534874</v>
+        <v>17.12024812627502</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.095663723041802</v>
+        <v>8.203125360463053</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.074212635114039</v>
+        <v>6.86897413420385</v>
       </c>
       <c r="E19">
-        <v>13.53971719951291</v>
+        <v>9.322361201947968</v>
       </c>
       <c r="F19">
-        <v>33.31455188095188</v>
+        <v>24.66422387225794</v>
       </c>
       <c r="G19">
-        <v>3.651825678949852</v>
+        <v>2.07603454035003</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>20.30977037061373</v>
+        <v>12.19929059438923</v>
       </c>
       <c r="J19">
-        <v>10.004091671239</v>
+        <v>5.81310333308812</v>
       </c>
       <c r="K19">
-        <v>12.37983731590371</v>
+        <v>17.17117586485658</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.27645048237358</v>
+        <v>14.66583719875961</v>
       </c>
       <c r="N19">
-        <v>18.94880984081851</v>
+        <v>12.02643578843431</v>
       </c>
       <c r="O19">
-        <v>25.04545388112021</v>
+        <v>17.10056093642579</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.143627598564919</v>
+        <v>8.341872974011622</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.08415035664051</v>
+        <v>6.948716801891848</v>
       </c>
       <c r="E20">
-        <v>13.54113603897449</v>
+        <v>9.393436213977502</v>
       </c>
       <c r="F20">
-        <v>33.31571802834398</v>
+        <v>24.87173526210016</v>
       </c>
       <c r="G20">
-        <v>3.651147554486953</v>
+        <v>2.07412996864025</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>20.2767892006844</v>
+        <v>12.09964376055455</v>
       </c>
       <c r="J20">
-        <v>9.997219572073329</v>
+        <v>5.811231042639007</v>
       </c>
       <c r="K20">
-        <v>12.48806642187673</v>
+        <v>17.48722974660879</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>16.32210491284341</v>
+        <v>14.94456435839056</v>
       </c>
       <c r="N20">
-        <v>18.92909608343554</v>
+        <v>11.95811059959845</v>
       </c>
       <c r="O20">
-        <v>25.03311829271601</v>
+        <v>17.19015251129602</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.302933640085374</v>
+        <v>8.791735331847462</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.11899258503869</v>
+        <v>7.213643801990238</v>
       </c>
       <c r="E21">
-        <v>13.54847469673626</v>
+        <v>9.635131311466411</v>
       </c>
       <c r="F21">
-        <v>33.32864520757366</v>
+        <v>25.58540384210933</v>
       </c>
       <c r="G21">
-        <v>3.648942901988319</v>
+        <v>2.067824190636324</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>20.16949996601165</v>
+        <v>11.7709444496341</v>
       </c>
       <c r="J21">
-        <v>9.975436982563261</v>
+        <v>5.808376306777784</v>
       </c>
       <c r="K21">
-        <v>12.846523500983</v>
+        <v>18.51268361672859</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16.47731046786124</v>
+        <v>15.84892724625406</v>
       </c>
       <c r="N21">
-        <v>18.86481004135707</v>
+        <v>11.73133286090549</v>
       </c>
       <c r="O21">
-        <v>24.99794287682804</v>
+        <v>17.50881083790503</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.405497969381964</v>
+        <v>9.073582494984507</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9.142824443259505</v>
+        <v>7.384334206600679</v>
       </c>
       <c r="E22">
-        <v>13.55517887396077</v>
+        <v>9.795091625785595</v>
       </c>
       <c r="F22">
-        <v>33.34379536125952</v>
+        <v>26.06379804051044</v>
       </c>
       <c r="G22">
-        <v>3.647556765969779</v>
+        <v>2.063768614559832</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>20.10199808881331</v>
+        <v>11.56066475512615</v>
       </c>
       <c r="J22">
-        <v>9.962173376285861</v>
+        <v>5.809162971145605</v>
       </c>
       <c r="K22">
-        <v>13.07655892544654</v>
+        <v>19.15591649381977</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>16.5799729109261</v>
+        <v>16.41627936623264</v>
       </c>
       <c r="N22">
-        <v>18.82424312416549</v>
+        <v>11.58511092318588</v>
       </c>
       <c r="O22">
-        <v>24.9796328444426</v>
+        <v>17.73044399615797</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.350910296544218</v>
+        <v>8.924268298468832</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.130009371051939</v>
+        <v>7.293471293471272</v>
       </c>
       <c r="E23">
-        <v>13.5514267398362</v>
+        <v>9.709544667490528</v>
       </c>
       <c r="F23">
-        <v>33.33509723850955</v>
+        <v>25.80739305112353</v>
       </c>
       <c r="G23">
-        <v>3.648291580051163</v>
+        <v>2.06592740946067</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>20.13778608094348</v>
+        <v>11.67247890792465</v>
       </c>
       <c r="J23">
-        <v>9.969163508498408</v>
+        <v>5.808494435147808</v>
       </c>
       <c r="K23">
-        <v>12.95419567193239</v>
+        <v>18.81506403058923</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.52507583347837</v>
+        <v>16.11562558047113</v>
       </c>
       <c r="N23">
-        <v>18.84576231902401</v>
+        <v>11.66297579507858</v>
       </c>
       <c r="O23">
-        <v>24.9889767995223</v>
+        <v>17.61091713484834</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.141000133683564</v>
+        <v>8.334314937146148</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.083599103189426</v>
+        <v>6.944348388255349</v>
       </c>
       <c r="E24">
-        <v>13.54104842802052</v>
+        <v>9.389521816487639</v>
       </c>
       <c r="F24">
-        <v>33.31562006917329</v>
+        <v>24.86027703179405</v>
       </c>
       <c r="G24">
-        <v>3.651184515775271</v>
+        <v>2.074234197829437</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>20.27858709514426</v>
+        <v>12.10509291644719</v>
       </c>
       <c r="J24">
-        <v>9.997592035585468</v>
+        <v>5.811321163103254</v>
       </c>
       <c r="K24">
-        <v>12.48214147344981</v>
+        <v>17.47001115561839</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>16.31959065395913</v>
+        <v>14.92937942716567</v>
       </c>
       <c r="N24">
-        <v>18.93017132131316</v>
+        <v>11.96185199880254</v>
       </c>
       <c r="O24">
-        <v>25.03377213105541</v>
+        <v>17.18516679333194</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.909083918445133</v>
+        <v>7.645824079841768</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>9.038233101999319</v>
+        <v>6.558732949096215</v>
       </c>
       <c r="E25">
-        <v>13.53809883303141</v>
+        <v>9.053947577266426</v>
       </c>
       <c r="F25">
-        <v>33.323455837749</v>
+        <v>23.89199686789075</v>
       </c>
       <c r="G25">
-        <v>3.654541549511444</v>
+        <v>2.083501098786754</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>20.44175494921521</v>
+        <v>12.59129258961541</v>
       </c>
       <c r="J25">
-        <v>10.03244115673958</v>
+        <v>5.825171735722366</v>
       </c>
       <c r="K25">
-        <v>11.95728735771992</v>
+        <v>15.90216749051251</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.10401028940759</v>
+        <v>13.67029687033172</v>
       </c>
       <c r="N25">
-        <v>19.02747016693486</v>
+        <v>12.29333342774419</v>
       </c>
       <c r="O25">
-        <v>25.10213960820894</v>
+        <v>16.78182832142899</v>
       </c>
     </row>
   </sheetData>
